--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9A5C4-7933-46DB-A833-D3EB0CBD4B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61DE04-2128-4FFB-92B4-285E182951AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>чж-всего-о</t>
   </si>
   <si>
-    <t>население на 1 января 1904</t>
-  </si>
-  <si>
     <t>Архангельская</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>Империя с Финляндией</t>
+  </si>
+  <si>
+    <t xml:space="preserve">население на 1 января </t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -797,12 +797,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
@@ -871,21 +871,21 @@
         <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -925,7 +925,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61DE04-2128-4FFB-92B4-285E182951AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2A53B5-E824-4598-9E4C-30EF201896B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>стр. 50-80</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t xml:space="preserve">население на 1 января </t>
+  </si>
+  <si>
+    <t>Камчатская обл.</t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
-  <dimension ref="A1:S108"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3487,7 +3490,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E108" si="6">B67+C67-D67</f>
+        <f t="shared" ref="E67:E109" si="6">B67+C67-D67</f>
         <v>0</v>
       </c>
       <c r="F67" s="2"/>
@@ -3495,7 +3498,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="4">
-        <f t="shared" ref="J67:J108" si="7">G67+H67-I67</f>
+        <f t="shared" ref="J67:J109" si="7">G67+H67-I67</f>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
@@ -3503,19 +3506,19 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="4">
-        <f t="shared" ref="O67:O108" si="8">L67+M67-N67</f>
+        <f t="shared" ref="O67:O109" si="8">L67+M67-N67</f>
         <v>0</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" ref="Q67:Q108" si="9">B67+G67-L67</f>
+        <f t="shared" ref="Q67:Q109" si="9">B67+G67-L67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" ref="R67:R108" si="10">C67+H67-M67</f>
+        <f t="shared" ref="R67:R109" si="10">C67+H67-M67</f>
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" ref="S67:S108" si="11">D67+I67-N67</f>
+        <f t="shared" ref="S67:S109" si="11">D67+I67-N67</f>
         <v>0</v>
       </c>
     </row>
@@ -4161,47 +4164,29 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="J84" s="4"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="O84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4241,7 +4226,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4281,7 +4266,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4321,7 +4306,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4361,7 +4346,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4370,6 +4355,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -4377,6 +4363,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4399,7 +4386,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4408,7 +4395,6 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4416,7 +4402,6 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4439,7 +4424,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4479,7 +4464,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4519,7 +4504,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4559,7 +4544,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4599,7 +4584,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4639,7 +4624,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4679,7 +4664,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4719,7 +4704,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4759,7 +4744,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4798,8 +4783,8 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="2" t="s">
-        <v>110</v>
+      <c r="A100" t="s">
+        <v>117</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4838,8 +4823,8 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>121</v>
+      <c r="A101" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4878,8 +4863,8 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2" t="s">
-        <v>111</v>
+      <c r="A102" t="s">
+        <v>121</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4919,7 +4904,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4959,7 +4944,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4999,7 +4984,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5039,7 +5024,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5079,7 +5064,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5119,7 +5104,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5128,6 +5113,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5135,6 +5121,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -5155,6 +5142,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2A53B5-E824-4598-9E4C-30EF201896B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871CFF2-71C3-43CF-9EC2-8827E3042F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="61260" yWindow="1260" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="Q84" sqref="Q84:S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4169,20 +4169,38 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="4"/>
+      <c r="J84" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
+      <c r="O84" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" ref="Q84" si="12">B84+G84-L84</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" ref="R84" si="13">C84+H84-M84</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="4">
+        <f t="shared" ref="S84" si="14">D84+I84-N84</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
